--- a/mosip_master/xlsx/status_list.xlsx
+++ b/mosip_master/xlsx/status_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t xml:space="preserve">disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مفعل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معطل</t>
   </si>
 </sst>
 </file>
@@ -155,25 +164,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -193,99 +210,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E5"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
